--- a/資料庫資料/資料庫資料整理.xlsx
+++ b/資料庫資料/資料庫資料整理.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大學專題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\project\資料庫資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E33236-3D0C-4CDE-BE64-8972418D5AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B14047-011F-4674-B645-15FEB194A136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="13632" windowHeight="12336" activeTab="1" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
   </bookViews>
   <sheets>
     <sheet name="長期" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="471">
   <si>
     <t>銀行別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2001,14 +2001,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中華電信聯名卡(無限卡)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中華電信聯名卡(御璽卡)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LinePay</t>
   </si>
   <si>
@@ -2016,18 +2008,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中華電信聯名卡(白金卡)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中華電信聯名卡(世界卡)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中華電信聯名卡(鈦金卡)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>822</t>
   </si>
   <si>
@@ -2114,6 +2094,159 @@
   </si>
   <si>
     <t>中信兄第</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣三SOGO聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄聯盟信用卡_現金</t>
+  </si>
+  <si>
+    <t>中油聯名卡_御璽卡</t>
+  </si>
+  <si>
+    <t>中油聯名卡_白金卡</t>
+  </si>
+  <si>
+    <t>中國信託鼎極卡_無限卡</t>
+  </si>
+  <si>
+    <t>中國信託鼎極卡_極緻卡</t>
+  </si>
+  <si>
+    <t>中國信託鼎極卡_世界卡</t>
+  </si>
+  <si>
+    <t>中信兄弟聯名卡_鼎極卡</t>
+  </si>
+  <si>
+    <t>中信兄弟聯名卡_御璽卡</t>
+  </si>
+  <si>
+    <t>中信兄弟聯名卡_鈦金卡</t>
+  </si>
+  <si>
+    <t>中信兄弟聯名卡_白金卡</t>
+  </si>
+  <si>
+    <t>中華電信聯名卡_無限卡</t>
+  </si>
+  <si>
+    <t>中華電信聯名卡_御璽卡</t>
+  </si>
+  <si>
+    <t>中華電信聯名卡_世界卡</t>
+  </si>
+  <si>
+    <t>中華電信聯名卡_鈦金卡</t>
+  </si>
+  <si>
+    <t>中華電信聯名卡_白金卡</t>
+  </si>
+  <si>
+    <t>漢神百貨聯名卡_無限卡</t>
+  </si>
+  <si>
+    <t>漢神百貨聯名卡_世界卡</t>
+  </si>
+  <si>
+    <t>漢神百貨聯名卡_御璽卡</t>
+  </si>
+  <si>
+    <t>漢神百貨聯名卡_晶緻卡</t>
+  </si>
+  <si>
+    <t>漢神百貨聯名卡_鈦金卡</t>
+  </si>
+  <si>
+    <t>秀泰聯名卡_晶緻卡</t>
+  </si>
+  <si>
+    <t>秀泰聯名卡_白金卡</t>
+  </si>
+  <si>
+    <t>大葉髙島屋百貨聯名卡_世界卡</t>
+  </si>
+  <si>
+    <t>大葉髙島屋百貨聯名卡_無限卡</t>
+  </si>
+  <si>
+    <t>大葉髙島屋百貨聯名卡_鈦金卡</t>
+  </si>
+  <si>
+    <t>大葉髙島屋百貨聯名卡_御璽卡</t>
+  </si>
+  <si>
+    <t>大葉髙島屋百貨聯名卡_晶緻卡</t>
+  </si>
+  <si>
+    <t>大葉髙島屋百貨聯名卡_白金卡</t>
+  </si>
+  <si>
+    <t>南紡購物中心聯名卡_鼎極無限卡</t>
+  </si>
+  <si>
+    <t>南紡購物中心聯名卡_御璽卡</t>
+  </si>
+  <si>
+    <t>勤美天地聯名卡_御璽卡</t>
+  </si>
+  <si>
+    <t>勤美天地聯名卡_晶緻卡</t>
+  </si>
+  <si>
+    <t>勤美天地聯名卡_白金卡</t>
+  </si>
+  <si>
+    <t>御璽和晶緻_指差在生日禮</t>
+  </si>
+  <si>
+    <t>OpenPossible聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL_ME卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mitsui_Shopping_Park_LaLaport聯名卡</t>
+  </si>
+  <si>
+    <t>Mitsui_Shopping_Park_LaLaport聯名卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_Pay信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAIPEI101聯名卡_尊榮鼎極卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAIPEI101聯名卡_新鼎極卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAIPEI101聯名卡_新御璽卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuperLife_VISA卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalMall聯名卡_無限卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalMall聯名卡_御璽卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalMall聯名卡_白金卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2769,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
   <dimension ref="A1:K283"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2833,7 +2966,7 @@
         <v>0.01</v>
       </c>
       <c r="E3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2850,7 +2983,7 @@
         <v>0.01</v>
       </c>
       <c r="E4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2867,7 +3000,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="138.6">
@@ -2907,7 +3040,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="138.6">
@@ -2947,7 +3080,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="138.6">
@@ -2987,7 +3120,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="138.6">
@@ -3027,7 +3160,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="138.6">
@@ -3067,7 +3200,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3084,7 +3217,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3101,7 +3234,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F17" t="s">
         <v>394</v>
@@ -3121,7 +3254,7 @@
         <v>0.01</v>
       </c>
       <c r="E18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F18" t="s">
         <v>395</v>
@@ -3161,7 +3294,7 @@
         <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3252,7 +3385,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="E25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3269,7 +3402,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3337,7 +3470,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E30" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3422,7 +3555,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="E35" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F35" t="s">
         <v>161</v>
@@ -3442,7 +3575,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="E36" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F36" t="s">
         <v>162</v>
@@ -3462,7 +3595,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="E37" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3479,7 +3612,7 @@
         <v>0.01</v>
       </c>
       <c r="E38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3556,7 +3689,7 @@
         <v>0.01</v>
       </c>
       <c r="E42" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3593,7 +3726,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="E44" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3610,7 +3743,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="E45" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3621,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="D46" s="4">
         <v>1.5E-3</v>
       </c>
       <c r="E46" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3638,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D47" s="4">
         <v>1.5E-3</v>
       </c>
       <c r="E47" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3655,13 +3788,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D48" s="4">
         <v>1.5E-3</v>
       </c>
       <c r="E48" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3672,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="D49" s="4">
         <v>3.0000000000000001E-3</v>
@@ -3692,13 +3825,13 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>390</v>
+        <v>246</v>
       </c>
       <c r="D50" s="4">
         <v>1.5E-3</v>
       </c>
       <c r="E50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3709,13 +3842,13 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>390</v>
+        <v>246</v>
       </c>
       <c r="D51" s="4">
         <v>1.5E-3</v>
       </c>
       <c r="E51" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3726,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>249</v>
+        <v>390</v>
       </c>
       <c r="D52" s="4">
         <v>0.1</v>
@@ -3746,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D53" s="4">
         <v>1.5E-3</v>
       </c>
       <c r="E53" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G53" t="s">
         <v>180</v>
@@ -3766,13 +3899,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D54" s="4">
         <v>1.5E-3</v>
       </c>
       <c r="E54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G54" t="s">
         <v>180</v>
@@ -3792,7 +3925,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E55" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="19"/>
@@ -3860,7 +3993,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E58" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="57.6">
@@ -3922,7 +4055,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E61" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F61" s="24"/>
     </row>
@@ -3986,7 +4119,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E64" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F64" s="19"/>
     </row>
@@ -4007,7 +4140,7 @@
         <v>133</v>
       </c>
       <c r="F65" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4027,7 +4160,7 @@
         <v>133</v>
       </c>
       <c r="F66" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4044,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G67" t="s">
         <v>391</v>
@@ -4064,7 +4197,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E68" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4081,7 +4214,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E69" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G69" t="s">
         <v>193</v>
@@ -4124,7 +4257,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E71" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G71" t="s">
         <v>193</v>
@@ -4167,7 +4300,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E73" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F73" s="23" t="s">
         <v>393</v>
@@ -4190,7 +4323,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E74" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4207,7 +4340,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E75" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4224,7 +4357,7 @@
         <v>0.01</v>
       </c>
       <c r="E76" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4241,7 +4374,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4258,7 +4391,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E78" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F78" t="s">
         <v>200</v>
@@ -4278,7 +4411,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4295,7 +4428,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="E80" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F80" t="s">
         <v>200</v>
@@ -4315,7 +4448,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4332,7 +4465,7 @@
         <v>0.02</v>
       </c>
       <c r="E82" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F82" t="s">
         <v>200</v>
@@ -4352,7 +4485,7 @@
         <v>0.01</v>
       </c>
       <c r="E83" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G83" s="27" t="s">
         <v>209</v>
@@ -4390,7 +4523,7 @@
         <v>0.06</v>
       </c>
       <c r="E85" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G85" s="27"/>
     </row>
@@ -4463,7 +4596,7 @@
         <v>0.01</v>
       </c>
       <c r="E89" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G89" s="27" t="s">
         <v>206</v>
@@ -4483,7 +4616,7 @@
         <v>0.01</v>
       </c>
       <c r="E90" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F90" t="s">
         <v>207</v>
@@ -4504,7 +4637,7 @@
         <v>0.01</v>
       </c>
       <c r="E91" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G91" s="27" t="s">
         <v>206</v>
@@ -4524,7 +4657,7 @@
         <v>0.01</v>
       </c>
       <c r="E92" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F92" t="s">
         <v>207</v>
@@ -4545,7 +4678,7 @@
         <v>0.01</v>
       </c>
       <c r="E93" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4562,7 +4695,7 @@
         <v>0.02</v>
       </c>
       <c r="E94" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F94" t="s">
         <v>207</v>
@@ -4710,7 +4843,7 @@
         <v>1E-3</v>
       </c>
       <c r="E101" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4764,7 +4897,7 @@
         <v>1E-3</v>
       </c>
       <c r="E104" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4818,7 +4951,7 @@
         <v>1E-3</v>
       </c>
       <c r="E107" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4835,7 +4968,7 @@
         <v>1E-3</v>
       </c>
       <c r="E108" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4852,7 +4985,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E109" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4869,7 +5002,7 @@
         <v>0.01</v>
       </c>
       <c r="E110" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>234</v>
@@ -4889,7 +5022,7 @@
         <v>0.01</v>
       </c>
       <c r="E111" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4906,7 +5039,7 @@
         <v>0.01</v>
       </c>
       <c r="E112" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4923,7 +5056,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E113" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4940,7 +5073,7 @@
         <v>0.01</v>
       </c>
       <c r="E114" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4957,7 +5090,7 @@
         <v>0.01</v>
       </c>
       <c r="E115" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4974,7 +5107,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E116" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4991,7 +5124,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E117" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5042,7 +5175,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E120" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5229,7 +5362,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E131" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5416,7 +5549,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E142" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5569,7 +5702,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5637,7 +5770,7 @@
         <v>0.01</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5654,7 +5787,7 @@
         <v>0.01</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5705,7 +5838,7 @@
         <v>0.01</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5742,7 +5875,7 @@
         <v>260</v>
       </c>
       <c r="F161" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5759,7 +5892,7 @@
         <v>0.01</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5796,7 +5929,7 @@
         <v>260</v>
       </c>
       <c r="F164" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5867,7 +6000,7 @@
         <v>260</v>
       </c>
       <c r="F168" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5938,7 +6071,7 @@
         <v>260</v>
       </c>
       <c r="F172" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -6009,7 +6142,7 @@
         <v>260</v>
       </c>
       <c r="F176" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -6080,7 +6213,7 @@
         <v>260</v>
       </c>
       <c r="F180" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -6151,7 +6284,7 @@
         <v>260</v>
       </c>
       <c r="F184" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -6168,7 +6301,7 @@
         <v>0.01</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -6219,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D188" s="4">
         <v>2.8799999999999999E-2</v>
@@ -6236,13 +6369,13 @@
         <v>0</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D189" s="4">
         <v>0.01</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -6253,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D190" s="4">
         <v>0.02</v>
@@ -6273,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D191" s="4">
         <v>0.03</v>
@@ -6316,7 +6449,7 @@
         <v>0.01</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6390,7 +6523,7 @@
         <v>0.01</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6464,7 +6597,7 @@
         <v>0.01</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6538,7 +6671,7 @@
         <v>0.01</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6615,7 +6748,7 @@
         <v>0.01</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6672,7 +6805,7 @@
         <v>0.01</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6689,7 +6822,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6726,7 +6859,7 @@
         <v>3.3E-3</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6763,7 +6896,7 @@
         <v>3.3E-3</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6780,7 +6913,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6797,7 +6930,7 @@
         <v>0.01</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6817,7 +6950,7 @@
         <v>154</v>
       </c>
       <c r="F220" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G220" t="s">
         <v>276</v>
@@ -6837,7 +6970,7 @@
         <v>3.3E-3</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6857,7 +6990,7 @@
         <v>259</v>
       </c>
       <c r="F222" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6874,7 +7007,7 @@
         <v>3.3E-4</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6891,7 +7024,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6908,7 +7041,7 @@
         <v>0.01</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6925,10 +7058,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F226" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6939,13 +7072,13 @@
         <v>0</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D227" s="4">
         <v>3.3E-3</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6956,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D228" s="4">
         <v>0.01</v>
@@ -6965,7 +7098,7 @@
         <v>154</v>
       </c>
       <c r="F228" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6982,7 +7115,7 @@
         <v>3.3E-3</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -7002,7 +7135,7 @@
         <v>154</v>
       </c>
       <c r="F230" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -7019,7 +7152,7 @@
         <v>3.3E-3</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -7036,7 +7169,7 @@
         <v>3.3E-3</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -7053,7 +7186,7 @@
         <v>3.3E-3</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -7090,7 +7223,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -7127,7 +7260,7 @@
         <v>0.01</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F237" s="9"/>
     </row>
@@ -7139,13 +7272,13 @@
         <v>2</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D238" s="4">
         <v>0.01</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F238" s="9"/>
     </row>
@@ -7157,13 +7290,13 @@
         <v>0</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D239" s="4">
         <v>3.3E-3</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F239" s="9"/>
     </row>
@@ -7175,13 +7308,13 @@
         <v>2</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D240" s="4">
         <v>3.3E-3</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F240" s="9"/>
     </row>
@@ -7193,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D241" s="4">
         <v>0.05</v>
@@ -7213,7 +7346,7 @@
         <v>2</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D242" s="4">
         <v>0.05</v>
@@ -7233,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D243" s="4">
         <v>0.01</v>
@@ -7253,7 +7386,7 @@
         <v>1</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D244" s="4">
         <v>1.2999999999999999E-2</v>
@@ -7273,7 +7406,7 @@
         <v>1</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D245" s="4">
         <v>1.67E-2</v>
@@ -7293,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D246" s="4">
         <v>3.3000000000000002E-2</v>
@@ -7316,13 +7449,13 @@
         <v>1</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D247" s="4">
         <v>0.01</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G247" t="s">
         <v>307</v>
@@ -7336,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D248" s="4">
         <v>0.03</v>
@@ -7484,13 +7617,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E751BC99-5B3C-4417-82AF-67B1E1EF6F0B}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="104" bestFit="1" customWidth="1"/>
   </cols>
@@ -7719,13 +7853,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>459</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7929,7 +8063,7 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>424</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -7946,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="D23" t="s">
         <v>59</v>
@@ -7966,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
         <v>388</v>
@@ -7987,7 +8121,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
@@ -8007,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="D26" t="s">
         <v>61</v>
@@ -8027,7 +8161,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="D27" t="s">
         <v>61</v>
@@ -8048,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>390</v>
       </c>
       <c r="D28" t="s">
         <v>62</v>
@@ -8068,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="D29" t="s">
         <v>63</v>
@@ -8088,7 +8222,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
@@ -8358,7 +8492,7 @@
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -8378,7 +8512,7 @@
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -8398,7 +8532,7 @@
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>461</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -8419,7 +8553,7 @@
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>460</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -8440,7 +8574,7 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -8461,7 +8595,7 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
@@ -8482,7 +8616,7 @@
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -8503,7 +8637,7 @@
         <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>314</v>
+        <v>426</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -8524,7 +8658,7 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -8587,7 +8721,7 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -8608,7 +8742,7 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -8629,7 +8763,7 @@
         <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>466</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -8670,7 +8804,7 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>315</v>
+        <v>428</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -8691,7 +8825,7 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>316</v>
+        <v>429</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
@@ -8711,7 +8845,7 @@
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>317</v>
+        <v>430</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -8888,7 +9022,7 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>467</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -8908,7 +9042,7 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>91</v>
+        <v>431</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -8928,7 +9062,7 @@
         <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>91</v>
+        <v>431</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -8948,7 +9082,7 @@
         <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
+        <v>431</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -8969,7 +9103,7 @@
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>253</v>
+        <v>432</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -8990,7 +9124,7 @@
         <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -9011,7 +9145,7 @@
         <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>92</v>
+        <v>434</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -9032,7 +9166,7 @@
         <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>92</v>
+        <v>434</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -9053,7 +9187,7 @@
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>92</v>
+        <v>434</v>
       </c>
       <c r="E76" s="1">
         <v>2</v>
@@ -9080,7 +9214,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -9116,18 +9250,18 @@
         <v>64</v>
       </c>
       <c r="D79" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B80">
         <f>E80</f>
@@ -9137,18 +9271,18 @@
         <v>264</v>
       </c>
       <c r="D80" t="s">
+        <v>436</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="15" t="s">
         <v>400</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B81">
         <f t="shared" ref="B81:B84" si="5">E81</f>
@@ -9158,18 +9292,18 @@
         <v>66</v>
       </c>
       <c r="D81" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B82">
         <f t="shared" si="5"/>
@@ -9179,18 +9313,18 @@
         <v>67</v>
       </c>
       <c r="D82" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B83">
         <f>E83</f>
@@ -9200,18 +9334,18 @@
         <v>68</v>
       </c>
       <c r="D83" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B84">
         <f t="shared" si="5"/>
@@ -9221,13 +9355,13 @@
         <v>69</v>
       </c>
       <c r="D84" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -9242,13 +9376,13 @@
         <v>275</v>
       </c>
       <c r="D85" t="s">
-        <v>96</v>
+        <v>440</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -9263,7 +9397,7 @@
         <v>277</v>
       </c>
       <c r="D86" t="s">
-        <v>97</v>
+        <v>441</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -9284,7 +9418,7 @@
         <v>278</v>
       </c>
       <c r="D87" t="s">
-        <v>98</v>
+        <v>442</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -9305,7 +9439,7 @@
         <v>279</v>
       </c>
       <c r="D88" t="s">
-        <v>99</v>
+        <v>443</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -9326,7 +9460,7 @@
         <v>280</v>
       </c>
       <c r="D89" t="s">
-        <v>100</v>
+        <v>444</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -9347,7 +9481,7 @@
         <v>281</v>
       </c>
       <c r="D90" t="s">
-        <v>101</v>
+        <v>468</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -9368,7 +9502,7 @@
         <v>282</v>
       </c>
       <c r="D91" t="s">
-        <v>102</v>
+        <v>469</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -9389,7 +9523,7 @@
         <v>283</v>
       </c>
       <c r="D92" t="s">
-        <v>103</v>
+        <v>470</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -9410,13 +9544,13 @@
         <v>284</v>
       </c>
       <c r="D93" t="s">
-        <v>104</v>
+        <v>445</v>
       </c>
       <c r="E93">
         <v>2</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9431,7 +9565,7 @@
         <v>286</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>446</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -9452,7 +9586,7 @@
         <v>288</v>
       </c>
       <c r="D95" t="s">
-        <v>106</v>
+        <v>447</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -9473,7 +9607,7 @@
         <v>289</v>
       </c>
       <c r="D96" t="s">
-        <v>107</v>
+        <v>448</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -9494,7 +9628,7 @@
         <v>290</v>
       </c>
       <c r="D97" t="s">
-        <v>108</v>
+        <v>449</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -9512,10 +9646,10 @@
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D98" t="s">
-        <v>285</v>
+        <v>450</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -9536,7 +9670,7 @@
         <v>294</v>
       </c>
       <c r="D99" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -9557,7 +9691,7 @@
         <v>295</v>
       </c>
       <c r="D100" t="s">
-        <v>109</v>
+        <v>452</v>
       </c>
       <c r="E100" s="1">
         <v>0</v>
@@ -9578,7 +9712,7 @@
         <v>295</v>
       </c>
       <c r="D101" t="s">
-        <v>109</v>
+        <v>452</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -9599,7 +9733,7 @@
         <v>295</v>
       </c>
       <c r="D102" t="s">
-        <v>109</v>
+        <v>452</v>
       </c>
       <c r="E102" s="1">
         <v>2</v>
@@ -9620,13 +9754,13 @@
         <v>296</v>
       </c>
       <c r="D103" t="s">
-        <v>110</v>
+        <v>453</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -9641,7 +9775,7 @@
         <v>298</v>
       </c>
       <c r="D104" t="s">
-        <v>111</v>
+        <v>454</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -9662,7 +9796,7 @@
         <v>306</v>
       </c>
       <c r="D105" t="s">
-        <v>293</v>
+        <v>455</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -9680,10 +9814,10 @@
         <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D106" t="s">
-        <v>292</v>
+        <v>456</v>
       </c>
       <c r="E106">
         <v>2</v>
@@ -9701,16 +9835,16 @@
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D107" t="s">
-        <v>112</v>
+        <v>457</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -9722,16 +9856,16 @@
         <v>2</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D108" t="s">
-        <v>112</v>
+        <v>457</v>
       </c>
       <c r="E108" s="1">
         <v>2</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -9743,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D109" t="s">
         <v>113</v>
@@ -9755,7 +9889,7 @@
         <v>376</v>
       </c>
       <c r="H109" t="s">
-        <v>377</v>
+        <v>458</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -9767,7 +9901,7 @@
         <v>2</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D110" t="s">
         <v>113</v>
@@ -9779,7 +9913,7 @@
         <v>376</v>
       </c>
       <c r="H110" t="s">
-        <v>377</v>
+        <v>458</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -9791,7 +9925,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D111" t="s">
         <v>114</v>
@@ -9815,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D112" t="s">
         <v>115</v>
@@ -9871,7 +10005,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P1" s="12"/>
     </row>
@@ -9927,7 +10061,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -10408,7 +10542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD205247-4704-4662-A3DB-46745690C417}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
